--- a/ListsStatistics.xlsx
+++ b/ListsStatistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t xml:space="preserve">LinkedList</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">CustomList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HashSet</t>
   </si>
   <si>
     <t xml:space="preserve">Average:</t>
@@ -132,11 +135,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,7 +203,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -255,7 +258,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$10:$C$10</c:f>
+              <c:f>Лист1!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -281,6 +284,264 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5825900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6073000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6372800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5315700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5829200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArrayList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$11:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5165800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5165800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7408800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5039300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6078000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CustomList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$11:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6357500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5799500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10177000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8536700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -311,194 +572,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$11:$C$15</c:f>
+              <c:f>Лист1!$F$11:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>855700</c:v>
+                  <c:v>6739900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>859300</c:v>
+                  <c:v>8059600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>763600</c:v>
+                  <c:v>11045200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1284300</c:v>
+                  <c:v>12706100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>881900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$10:$D$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ArrayList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$11:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>984700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1268000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1210100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1200400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1143800</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$10:$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CustomList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$11:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1638700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1185000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1675500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1261800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1248800</c:v>
+                  <c:v>12706100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,17 +604,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="17118887"/>
-        <c:axId val="62891324"/>
+        <c:axId val="11513554"/>
+        <c:axId val="71523473"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17118887"/>
+        <c:axId val="11513554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -545,7 +636,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62891324"/>
+        <c:crossAx val="71523473"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62891324"/>
+        <c:axId val="71523473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,7 +659,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -590,7 +681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17118887"/>
+        <c:crossAx val="11513554"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -681,7 +772,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$19:$C$19</c:f>
+              <c:f>Лист1!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -707,6 +798,264 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$20:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>128364000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109646500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102676500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101081300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102722200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArrayList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104002700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114837300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100042800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90021800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107160000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CustomList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>499211000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422344000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>435424800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>448721100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424994800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -737,194 +1086,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$20:$C$24</c:f>
+              <c:f>Лист1!$F$20:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13170300</c:v>
+                  <c:v>122194200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13696600</c:v>
+                  <c:v>108249900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15264600</c:v>
+                  <c:v>104648900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12965800</c:v>
+                  <c:v>96152900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13122700</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$19:$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ArrayList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$20:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>15537100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14674300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12294700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12294700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12346300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$19:$E$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CustomList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$20:$E$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>17091600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18771300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18394800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17528100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19728000</c:v>
+                  <c:v>96152900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,17 +1118,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="45337302"/>
-        <c:axId val="11511981"/>
+        <c:axId val="47371165"/>
+        <c:axId val="22983112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="45337302"/>
+        <c:axId val="47371165"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -971,7 +1150,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11511981"/>
+        <c:crossAx val="22983112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -979,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11511981"/>
+        <c:axId val="22983112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,7 +1173,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1016,7 +1195,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45337302"/>
+        <c:crossAx val="47371165"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1107,7 +1286,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$28:$C$28</c:f>
+              <c:f>Лист1!$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1133,6 +1312,264 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>488800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>468800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>288200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>796700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArrayList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$29:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>284600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>251800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CustomList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$29:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1139100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1182400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1131600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1131600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1131600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1163,194 +1600,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$29:$C$33</c:f>
+              <c:f>Лист1!$F$29:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31800</c:v>
+                  <c:v>408800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37300</c:v>
+                  <c:v>372000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42100</c:v>
+                  <c:v>390700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52900</c:v>
+                  <c:v>206800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$28:$D$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ArrayList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$29:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>26700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>36400</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$28:$E$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CustomList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$29:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>174500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>174500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>165300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>219300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>219300</c:v>
+                  <c:v>206800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,17 +1632,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="25688727"/>
-        <c:axId val="42924294"/>
+        <c:axId val="23990533"/>
+        <c:axId val="16301813"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25688727"/>
+        <c:axId val="23990533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1397,7 +1664,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42924294"/>
+        <c:crossAx val="16301813"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42924294"/>
+        <c:axId val="16301813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1687,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1442,7 +1709,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25688727"/>
+        <c:crossAx val="23990533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1533,7 +1800,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$C$37:$C$37</c:f>
+              <c:f>Лист1!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1559,6 +1826,264 @@
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$38:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5739400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5090300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4163300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5392300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3459000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ArrayList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$38:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16772500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13765300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13255200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9805300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12200500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CustomList</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$38:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6608600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7118100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7118100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5706900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1058100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HashSet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -1589,194 +2114,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$38:$C$42</c:f>
+              <c:f>Лист1!$F$38:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1247600</c:v>
+                  <c:v>9502600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1170100</c:v>
+                  <c:v>7390500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>963500</c:v>
+                  <c:v>5125400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1013300</c:v>
+                  <c:v>5284200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1163900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$D$37:$D$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ArrayList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$D$38:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>860100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1193000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1384700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>715900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>993500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$E$37:$E$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CustomList</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$E$38:$E$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1572300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1217100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1468700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1280600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1058100</c:v>
+                  <c:v>6888300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1791,17 +2146,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="82225307"/>
-        <c:axId val="3559570"/>
+        <c:axId val="55532056"/>
+        <c:axId val="97084739"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82225307"/>
+        <c:axId val="55532056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1823,7 +2178,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3559570"/>
+        <c:crossAx val="97084739"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1831,7 +2186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3559570"/>
+        <c:axId val="97084739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1846,7 +2201,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1868,7 +2223,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82225307"/>
+        <c:crossAx val="55532056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1920,16 +2275,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>496080</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>565200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>310320</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1937,8 +2292,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4559760" y="296280"/>
-        <a:ext cx="5758920" cy="3241800"/>
+        <a:off x="5125680" y="353160"/>
+        <a:ext cx="5767200" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1951,15 +2306,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:colOff>628920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>237960</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>698400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1967,8 +2322,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10734480" y="306360"/>
-        <a:ext cx="5759280" cy="3241440"/>
+        <a:off x="11211480" y="411840"/>
+        <a:ext cx="5768280" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1980,16 +2335,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291240</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1997,8 +2352,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4550400" y="3872520"/>
-        <a:ext cx="5758920" cy="3241440"/>
+        <a:off x="5106600" y="3920760"/>
+        <a:ext cx="5767200" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2011,15 +2366,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39960</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2027,8 +2382,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10615680" y="3863160"/>
-        <a:ext cx="5758920" cy="3241440"/>
+        <a:off x="11367360" y="3958560"/>
+        <a:ext cx="5767920" cy="3241080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2046,344 +2401,432 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B10:E43"/>
+  <dimension ref="B10:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P24" activeCellId="0" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
-        <v>855700</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>984700</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1638700</v>
+      <c r="C11" s="1" t="n">
+        <v>5825900</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>5165800</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>6357500</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6739900</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
-        <v>859300</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1268000</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1185000</v>
+      <c r="C12" s="1" t="n">
+        <v>6073000</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>5165800</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>6150000</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>8059600</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
-        <v>763600</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1210100</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1675500</v>
+      <c r="C13" s="1" t="n">
+        <v>6372800</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>7408800</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>5799500</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>11045200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
-        <v>1284300</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1200400</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1261800</v>
+      <c r="C14" s="1" t="n">
+        <v>5315700</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>5039300</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>10177000</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>12706100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
-        <v>881900</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1143800</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1248800</v>
+      <c r="C15" s="1" t="n">
+        <v>5829200</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>6078000</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>8536700</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>12706100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <f aca="false">AVERAGE(C11:C15)</f>
-        <v>928960</v>
-      </c>
-      <c r="D16" s="1" t="n">
+        <v>5883320</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <f aca="false">AVERAGE(D11:D15)</f>
-        <v>1161400</v>
-      </c>
-      <c r="E16" s="1" t="n">
+        <v>5771540</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <f aca="false">AVERAGE(E11:E15)</f>
-        <v>1401960</v>
+        <v>7404140</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">AVERAGE(F11:F15)</f>
+        <v>10251380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
-        <v>13170300</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>15537100</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>17091600</v>
+      <c r="C20" s="1" t="n">
+        <v>128364000</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>104002700</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>499211000</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>122194200</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
-        <v>13696600</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>14674300</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>18771300</v>
+      <c r="C21" s="1" t="n">
+        <v>109646500</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>114837300</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>422344000</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>108249900</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
-        <v>15264600</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>12294700</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>18394800</v>
+      <c r="C22" s="1" t="n">
+        <v>102676500</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100042800</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>435424800</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>104648900</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
-        <v>12965800</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>12294700</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>17528100</v>
+      <c r="C23" s="1" t="n">
+        <v>101081300</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>90021800</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>448721100</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>96152900</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
-        <v>13122700</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>12346300</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>19728000</v>
+      <c r="C24" s="1" t="n">
+        <v>102722200</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>107160000</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>424994800</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>96152900</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="n">
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <f aca="false">AVERAGE(C20:C24)</f>
-        <v>13644000</v>
-      </c>
-      <c r="D25" s="1" t="n">
+        <v>108898100</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <f aca="false">AVERAGE(D20:D24)</f>
-        <v>13429420</v>
-      </c>
-      <c r="E25" s="1" t="n">
+        <v>103212920</v>
+      </c>
+      <c r="E25" s="2" t="n">
         <f aca="false">AVERAGE(E20:E24)</f>
-        <v>18302760</v>
+        <v>446139140</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">AVERAGE(F20:F24)</f>
+        <v>105479760</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="n">
-        <v>31800</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>26700</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>174500</v>
+      <c r="C29" s="1" t="n">
+        <v>488800</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>284600</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>1139100</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>408800</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="n">
-        <v>37300</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>28000</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>174500</v>
+      <c r="C30" s="1" t="n">
+        <v>468800</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>154100</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>1182400</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>372000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="n">
-        <v>42100</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>37000</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>165300</v>
+      <c r="C31" s="1" t="n">
+        <v>310800</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>242200</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1131600</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>390700</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="n">
-        <v>52900</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>27100</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>219300</v>
+      <c r="C32" s="1" t="n">
+        <v>288200</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>251800</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>1131600</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>206800</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="n">
-        <v>45100</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>36400</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>219300</v>
+      <c r="C33" s="1" t="n">
+        <v>796700</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>186000</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>1131600</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>206800</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="n">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="n">
         <f aca="false">AVERAGE(C29:C33)</f>
-        <v>41840</v>
-      </c>
-      <c r="D34" s="1" t="n">
+        <v>470660</v>
+      </c>
+      <c r="D34" s="2" t="n">
         <f aca="false">AVERAGE(D29:D33)</f>
-        <v>31040</v>
-      </c>
-      <c r="E34" s="1" t="n">
+        <v>223740</v>
+      </c>
+      <c r="E34" s="2" t="n">
         <f aca="false">AVERAGE(E29:E33)</f>
-        <v>190580</v>
+        <v>1143260</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <f aca="false">AVERAGE(F29:F33)</f>
+        <v>317020</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="n">
-        <v>1247600</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>860100</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1572300</v>
+      <c r="C38" s="1" t="n">
+        <v>5739400</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>16772500</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>6608600</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>9502600</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="n">
-        <v>1170100</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1193000</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1217100</v>
+      <c r="C39" s="1" t="n">
+        <v>5090300</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>13765300</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>7118100</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>7390500</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="n">
-        <v>963500</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1384700</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1468700</v>
+      <c r="C40" s="1" t="n">
+        <v>4163300</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>13255200</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>7118100</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>5125400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="n">
-        <v>1013300</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>715900</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1280600</v>
+      <c r="C41" s="1" t="n">
+        <v>5392300</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>9805300</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>5706900</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>5284200</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="n">
-        <v>1163900</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>993500</v>
-      </c>
-      <c r="E42" s="0" t="n">
+      <c r="C42" s="1" t="n">
+        <v>3459000</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>12200500</v>
+      </c>
+      <c r="E42" s="1" t="n">
         <v>1058100</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>6888300</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1" t="n">
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="n">
         <f aca="false">AVERAGE(C38:C42)</f>
-        <v>1111680</v>
-      </c>
-      <c r="D43" s="1" t="n">
+        <v>4768860</v>
+      </c>
+      <c r="D43" s="2" t="n">
         <f aca="false">AVERAGE(D38:D42)</f>
-        <v>1029440</v>
-      </c>
-      <c r="E43" s="1" t="n">
+        <v>13159760</v>
+      </c>
+      <c r="E43" s="2" t="n">
         <f aca="false">AVERAGE(E38:E42)</f>
-        <v>1319360</v>
+        <v>5521960</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <f aca="false">AVERAGE(F38:F42)</f>
+        <v>6838200</v>
       </c>
     </row>
   </sheetData>
